--- a/extras/Cronograma de Execução e  Plano de Gestão de Risco - Watchdog.xlsx
+++ b/extras/Cronograma de Execução e  Plano de Gestão de Risco - Watchdog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thiago\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360BAA59-8E52-4A01-8070-89DBF214EC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5840D75E-B24E-4662-804D-C5DF2BA8DDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6D9AC34-E348-4A18-B790-FD470FFA6213}"/>
   </bookViews>
@@ -213,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +240,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -326,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,9 +346,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -355,9 +360,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -701,7 +704,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +715,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -729,10 +732,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -746,8 +749,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -757,21 +760,21 @@
         <v>45536</v>
       </c>
       <c r="E3" s="4">
-        <v>45536</v>
+        <v>45566</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -785,8 +788,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -800,17 +803,17 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -824,8 +827,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -839,17 +842,17 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -863,8 +866,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -878,17 +881,17 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -900,8 +903,8 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -929,7 +932,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8211289-6738-4297-96ED-6B3274510725}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -946,7 +949,7 @@
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -988,7 +991,7 @@
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1002,7 +1005,7 @@
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1016,7 +1019,7 @@
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1030,7 +1033,7 @@
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1044,7 +1047,7 @@
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1058,13 +1061,13 @@
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1072,15 +1075,18 @@
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
